--- a/var_info/indv_panel_var_info/GLES_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/GLES_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7718461-AF85-B747-BF89-8B930C62A3DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BD35B4-79D9-E045-BBCF-D1A7A7A2252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="81">
   <si>
     <t>ord</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1128,7 +1131,7 @@
     <col min="7" max="7" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1178,10 +1181,13 @@
         <v>21</v>
       </c>
       <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1218,8 +1224,11 @@
       <c r="L2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1256,8 +1265,11 @@
       <c r="L3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1294,8 +1306,11 @@
       <c r="L4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1332,8 +1347,11 @@
       <c r="L5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1370,8 +1388,11 @@
       <c r="L6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1408,8 +1429,11 @@
       <c r="L7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1446,8 +1470,11 @@
       <c r="L8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1483,6 +1510,9 @@
       </c>
       <c r="L9">
         <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1492,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1504,7 +1534,7 @@
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1554,10 +1584,13 @@
         <v>21</v>
       </c>
       <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1579,11 +1612,11 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1605,11 +1638,11 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1631,11 +1664,11 @@
       <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1657,11 +1690,11 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1683,11 +1716,11 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1709,11 +1742,11 @@
       <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1735,11 +1768,11 @@
       <c r="G8" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1761,11 +1794,11 @@
       <c r="G9" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1787,11 +1820,11 @@
       <c r="G10" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1813,11 +1846,11 @@
       <c r="G11" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1839,11 +1872,11 @@
       <c r="G12" t="s">
         <v>52</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1865,11 +1898,11 @@
       <c r="G13" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1891,11 +1924,11 @@
       <c r="G14" t="s">
         <v>52</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1917,11 +1950,11 @@
       <c r="G15" t="s">
         <v>52</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1943,11 +1976,11 @@
       <c r="G16" t="s">
         <v>52</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +2002,7 @@
       <c r="G17" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1980,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1991,7 +2024,7 @@
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2041,10 +2074,13 @@
         <v>21</v>
       </c>
       <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2066,11 +2102,11 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2092,11 +2128,11 @@
       <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2118,11 +2154,11 @@
       <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2144,11 +2180,11 @@
       <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2170,11 +2206,11 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2196,11 +2232,11 @@
       <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2222,11 +2258,11 @@
       <c r="G8" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2248,11 +2284,11 @@
       <c r="G9" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2274,11 +2310,11 @@
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2336,7 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2312,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2325,7 +2361,7 @@
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2375,10 +2411,13 @@
         <v>21</v>
       </c>
       <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2400,11 +2439,11 @@
       <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2426,11 +2465,11 @@
       <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2452,11 +2491,11 @@
       <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2478,11 +2517,11 @@
       <c r="G5" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2504,11 +2543,11 @@
       <c r="G6" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2530,11 +2569,11 @@
       <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2556,11 +2595,11 @@
       <c r="G8" t="s">
         <v>56</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2582,11 +2621,11 @@
       <c r="G9" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17">
+    <row r="15" spans="1:18" ht="17">
       <c r="H15" s="1"/>
     </row>
   </sheetData>
@@ -2596,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2607,7 +2646,7 @@
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2654,6 +2693,9 @@
         <v>21</v>
       </c>
       <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2666,7 +2708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AC8E36-533F-F84B-B4DA-574855794D4F}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
